--- a/Doc/stratégie de test toute les versions/StrategieTestV4.xlsx
+++ b/Doc/stratégie de test toute les versions/StrategieTestV4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bataille navale\A rendre\stratégie de test toute les versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban.GIORGIS\CLionProjects\BatailleNavalExa\Repository\Bataille_navale\Doc\stratégie de test toute les versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Scénario</t>
   </si>
@@ -119,7 +119,10 @@
     <t xml:space="preserve"> Affiche la grille après avoir presser sur jouer</t>
   </si>
   <si>
-    <t>redemande les coordonnée si il tire sur case déjà choisie</t>
+    <t>redemande les coordonnée si il tire sur une case déjà choisie</t>
+  </si>
+  <si>
+    <t>si il rentre une lettre pour une coordonnée lui dit que c'est faut</t>
   </si>
 </sst>
 </file>
@@ -290,8 +293,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,8 +308,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,20 +335,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,11 +677,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,21 +692,21 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -711,11 +714,11 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -723,11 +726,11 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -759,21 +762,21 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
@@ -781,11 +784,11 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
@@ -793,11 +796,11 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
@@ -805,11 +808,11 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
@@ -817,11 +820,11 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
@@ -829,11 +832,11 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
@@ -844,11 +847,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
@@ -856,11 +859,11 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
@@ -868,11 +871,11 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
@@ -880,11 +883,11 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -892,11 +895,11 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
@@ -904,11 +907,11 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
@@ -916,11 +919,11 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
@@ -928,11 +931,11 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="4" t="s">
         <v>5</v>
       </c>
@@ -940,65 +943,69 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="4"/>
+    <row r="25" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
@@ -1006,11 +1013,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
@@ -1018,37 +1025,37 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="4"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
@@ -1056,11 +1063,11 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
@@ -1068,2436 +1075,2089 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="4"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="4"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="4"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="4"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="4"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="4"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="4"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="4"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="4"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="4"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="4"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="4"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="4"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="4"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="4"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="4"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="4"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="4"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="4"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="4"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="4"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="4"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="4"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="4"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="4"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="4"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="4"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="4"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="4"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="4"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="4"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="4"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="4"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="4"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="14"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="4"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="4"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="4"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="4"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="4"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="14"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
       <c r="D82" s="4"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="14"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
       <c r="D83" s="4"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="14"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="4"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="14"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="4"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="14"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="4"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="14"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="4"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="14"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="4"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="14"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="4"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="14"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="4"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="14"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="4"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="14"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="4"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="14"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="4"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="14"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="4"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="14"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="4"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="4"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="4"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="4"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="4"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="4"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="4"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="4"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="4"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
       <c r="D104" s="4"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="4"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="4"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="4"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="4"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="4"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="4"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
       <c r="D111" s="4"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="4"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="4"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="4"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
       <c r="D115" s="4"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="4"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
       <c r="D117" s="4"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
       <c r="D118" s="4"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
       <c r="D119" s="4"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
       <c r="D120" s="4"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
       <c r="D121" s="4"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
       <c r="D122" s="4"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
       <c r="D123" s="4"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
       <c r="D124" s="4"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
       <c r="D125" s="4"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
       <c r="D126" s="4"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
       <c r="D127" s="4"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
       <c r="D128" s="4"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
       <c r="D129" s="4"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
       <c r="D130" s="4"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
       <c r="D131" s="4"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
       <c r="D132" s="4"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
       <c r="D133" s="4"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
       <c r="D134" s="4"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
       <c r="D135" s="4"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
       <c r="D136" s="4"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="15"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
       <c r="D137" s="4"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="15"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
       <c r="D138" s="4"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="15"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
       <c r="D139" s="4"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
       <c r="D140" s="4"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
       <c r="D141" s="4"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
       <c r="D142" s="4"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="15"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
       <c r="D143" s="4"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
       <c r="D144" s="4"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
       <c r="D145" s="4"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
       <c r="D146" s="4"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
       <c r="D147" s="4"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
       <c r="D148" s="4"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
       <c r="D149" s="4"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
       <c r="D150" s="4"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
       <c r="D151" s="4"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="26"/>
       <c r="D152" s="4"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
       <c r="D153" s="4"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
       <c r="D154" s="4"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="26"/>
       <c r="D155" s="4"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="26"/>
       <c r="D156" s="4"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
       <c r="D157" s="4"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="26"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="26"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="26"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="26"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="26"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="26"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="26"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="26"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="26"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="26"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="26"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="26"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="26"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="26"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="26"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="26"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
+      <c r="A194" s="26"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="26"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="26"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="26"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="26"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="26"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="26"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="26"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="26"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="26"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="26"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="26"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="26"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="26"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="26"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="26"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="26"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="26"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="26"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="26"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="26"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="26"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="11"/>
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="26"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="26"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="26"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="11"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="26"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="26"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="11"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="26"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="26"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="11"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="11"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="26"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="11"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="26"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="26"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
+      <c r="A232" s="26"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="26"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="26"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
+      <c r="C234" s="26"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="11"/>
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="26"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="11"/>
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="26"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="11"/>
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="26"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
+      <c r="A238" s="26"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="26"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="26"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="26"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="11"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="11"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="26"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="26"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="26"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
+      <c r="C245" s="26"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
+      <c r="A246" s="26"/>
+      <c r="B246" s="26"/>
+      <c r="C246" s="26"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="11"/>
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="26"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="26"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="26"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
+      <c r="A250" s="26"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="26"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="26"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="11"/>
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="26"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="11"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="26"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="26"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="11"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="26"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="26"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="11"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="11"/>
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="26"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
+      <c r="C258" s="26"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="11"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
+      <c r="A259" s="26"/>
+      <c r="B259" s="26"/>
+      <c r="C259" s="26"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="11"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
+      <c r="A260" s="26"/>
+      <c r="B260" s="26"/>
+      <c r="C260" s="26"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="11"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
+      <c r="A261" s="26"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="26"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="11"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
+      <c r="A262" s="26"/>
+      <c r="B262" s="26"/>
+      <c r="C262" s="26"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="11"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="11"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="26"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="11"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
+      <c r="A264" s="26"/>
+      <c r="B264" s="26"/>
+      <c r="C264" s="26"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
+      <c r="A265" s="26"/>
+      <c r="B265" s="26"/>
+      <c r="C265" s="26"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="11"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
+      <c r="A266" s="26"/>
+      <c r="B266" s="26"/>
+      <c r="C266" s="26"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="11"/>
+      <c r="A267" s="26"/>
+      <c r="B267" s="26"/>
+      <c r="C267" s="26"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
+      <c r="A268" s="26"/>
+      <c r="B268" s="26"/>
+      <c r="C268" s="26"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="11"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
+      <c r="A269" s="26"/>
+      <c r="B269" s="26"/>
+      <c r="C269" s="26"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
+      <c r="A270" s="26"/>
+      <c r="B270" s="26"/>
+      <c r="C270" s="26"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="11"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="11"/>
+      <c r="A271" s="26"/>
+      <c r="B271" s="26"/>
+      <c r="C271" s="26"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="11"/>
+      <c r="A272" s="26"/>
+      <c r="B272" s="26"/>
+      <c r="C272" s="26"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="11"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="11"/>
+      <c r="A273" s="26"/>
+      <c r="B273" s="26"/>
+      <c r="C273" s="26"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="11"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
+      <c r="A274" s="26"/>
+      <c r="B274" s="26"/>
+      <c r="C274" s="26"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="11"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
+      <c r="A275" s="26"/>
+      <c r="B275" s="26"/>
+      <c r="C275" s="26"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="11"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
+      <c r="A276" s="26"/>
+      <c r="B276" s="26"/>
+      <c r="C276" s="26"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="11"/>
-      <c r="B277" s="11"/>
-      <c r="C277" s="11"/>
+      <c r="A277" s="26"/>
+      <c r="B277" s="26"/>
+      <c r="C277" s="26"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="11"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="11"/>
+      <c r="A278" s="26"/>
+      <c r="B278" s="26"/>
+      <c r="C278" s="26"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="11"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="11"/>
+      <c r="A279" s="26"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="26"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="11"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
+      <c r="A280" s="26"/>
+      <c r="B280" s="26"/>
+      <c r="C280" s="26"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="11"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
+      <c r="A281" s="26"/>
+      <c r="B281" s="26"/>
+      <c r="C281" s="26"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="11"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="11"/>
+      <c r="A282" s="26"/>
+      <c r="B282" s="26"/>
+      <c r="C282" s="26"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="11"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="11"/>
+      <c r="A283" s="26"/>
+      <c r="B283" s="26"/>
+      <c r="C283" s="26"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="11"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
+      <c r="A284" s="26"/>
+      <c r="B284" s="26"/>
+      <c r="C284" s="26"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="11"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="11"/>
+      <c r="A285" s="26"/>
+      <c r="B285" s="26"/>
+      <c r="C285" s="26"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="11"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
+      <c r="A286" s="26"/>
+      <c r="B286" s="26"/>
+      <c r="C286" s="26"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="11"/>
-      <c r="B287" s="11"/>
-      <c r="C287" s="11"/>
+      <c r="A287" s="26"/>
+      <c r="B287" s="26"/>
+      <c r="C287" s="26"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="11"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="11"/>
+      <c r="A288" s="26"/>
+      <c r="B288" s="26"/>
+      <c r="C288" s="26"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="11"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="11"/>
+      <c r="A289" s="26"/>
+      <c r="B289" s="26"/>
+      <c r="C289" s="26"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="11"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="11"/>
+      <c r="A290" s="26"/>
+      <c r="B290" s="26"/>
+      <c r="C290" s="26"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="11"/>
-      <c r="B291" s="11"/>
-      <c r="C291" s="11"/>
+      <c r="A291" s="26"/>
+      <c r="B291" s="26"/>
+      <c r="C291" s="26"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="11"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="11"/>
+      <c r="A292" s="26"/>
+      <c r="B292" s="26"/>
+      <c r="C292" s="26"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="11"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="11"/>
+      <c r="A293" s="26"/>
+      <c r="B293" s="26"/>
+      <c r="C293" s="26"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="11"/>
-      <c r="B294" s="11"/>
-      <c r="C294" s="11"/>
+      <c r="A294" s="26"/>
+      <c r="B294" s="26"/>
+      <c r="C294" s="26"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="11"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
+      <c r="A295" s="26"/>
+      <c r="B295" s="26"/>
+      <c r="C295" s="26"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="11"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="11"/>
+      <c r="A296" s="26"/>
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="11"/>
-      <c r="B297" s="11"/>
-      <c r="C297" s="11"/>
+      <c r="A297" s="26"/>
+      <c r="B297" s="26"/>
+      <c r="C297" s="26"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="11"/>
-      <c r="B298" s="11"/>
-      <c r="C298" s="11"/>
+      <c r="A298" s="26"/>
+      <c r="B298" s="26"/>
+      <c r="C298" s="26"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="11"/>
-      <c r="B299" s="11"/>
-      <c r="C299" s="11"/>
+      <c r="A299" s="26"/>
+      <c r="B299" s="26"/>
+      <c r="C299" s="26"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="11"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
+      <c r="A300" s="26"/>
+      <c r="B300" s="26"/>
+      <c r="C300" s="26"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="11"/>
-      <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
+      <c r="A301" s="26"/>
+      <c r="B301" s="26"/>
+      <c r="C301" s="26"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="11"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
+      <c r="A302" s="26"/>
+      <c r="B302" s="26"/>
+      <c r="C302" s="26"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="11"/>
-      <c r="B303" s="11"/>
-      <c r="C303" s="11"/>
+      <c r="A303" s="26"/>
+      <c r="B303" s="26"/>
+      <c r="C303" s="26"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="11"/>
-      <c r="B304" s="11"/>
-      <c r="C304" s="11"/>
+      <c r="A304" s="26"/>
+      <c r="B304" s="26"/>
+      <c r="C304" s="26"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="11"/>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
+      <c r="A305" s="26"/>
+      <c r="B305" s="26"/>
+      <c r="C305" s="26"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="11"/>
-      <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
+      <c r="A306" s="26"/>
+      <c r="B306" s="26"/>
+      <c r="C306" s="26"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="11"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="11"/>
+      <c r="A307" s="26"/>
+      <c r="B307" s="26"/>
+      <c r="C307" s="26"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="11"/>
-      <c r="B308" s="11"/>
-      <c r="C308" s="11"/>
+      <c r="A308" s="26"/>
+      <c r="B308" s="26"/>
+      <c r="C308" s="26"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="11"/>
-      <c r="B309" s="11"/>
-      <c r="C309" s="11"/>
+      <c r="A309" s="26"/>
+      <c r="B309" s="26"/>
+      <c r="C309" s="26"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="11"/>
-      <c r="B310" s="11"/>
-      <c r="C310" s="11"/>
+      <c r="A310" s="26"/>
+      <c r="B310" s="26"/>
+      <c r="C310" s="26"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="11"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
+      <c r="A311" s="26"/>
+      <c r="B311" s="26"/>
+      <c r="C311" s="26"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="11"/>
-      <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
+      <c r="A312" s="26"/>
+      <c r="B312" s="26"/>
+      <c r="C312" s="26"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="11"/>
-      <c r="B313" s="11"/>
-      <c r="C313" s="11"/>
+      <c r="A313" s="26"/>
+      <c r="B313" s="26"/>
+      <c r="C313" s="26"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="11"/>
-      <c r="B314" s="11"/>
-      <c r="C314" s="11"/>
+      <c r="A314" s="26"/>
+      <c r="B314" s="26"/>
+      <c r="C314" s="26"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="11"/>
-      <c r="B315" s="11"/>
-      <c r="C315" s="11"/>
+      <c r="A315" s="26"/>
+      <c r="B315" s="26"/>
+      <c r="C315" s="26"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="11"/>
-      <c r="B316" s="11"/>
-      <c r="C316" s="11"/>
+      <c r="A316" s="26"/>
+      <c r="B316" s="26"/>
+      <c r="C316" s="26"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="11"/>
-      <c r="B317" s="11"/>
-      <c r="C317" s="11"/>
+      <c r="A317" s="26"/>
+      <c r="B317" s="26"/>
+      <c r="C317" s="26"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="11"/>
-      <c r="B318" s="11"/>
-      <c r="C318" s="11"/>
+      <c r="A318" s="26"/>
+      <c r="B318" s="26"/>
+      <c r="C318" s="26"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="11"/>
-      <c r="B319" s="11"/>
-      <c r="C319" s="11"/>
+      <c r="A319" s="26"/>
+      <c r="B319" s="26"/>
+      <c r="C319" s="26"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="11"/>
-      <c r="B320" s="11"/>
-      <c r="C320" s="11"/>
+      <c r="A320" s="26"/>
+      <c r="B320" s="26"/>
+      <c r="C320" s="26"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="11"/>
-      <c r="B321" s="11"/>
-      <c r="C321" s="11"/>
+      <c r="A321" s="26"/>
+      <c r="B321" s="26"/>
+      <c r="C321" s="26"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="11"/>
-      <c r="B322" s="11"/>
-      <c r="C322" s="11"/>
+      <c r="A322" s="26"/>
+      <c r="B322" s="26"/>
+      <c r="C322" s="26"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="11"/>
-      <c r="B323" s="11"/>
-      <c r="C323" s="11"/>
+      <c r="A323" s="26"/>
+      <c r="B323" s="26"/>
+      <c r="C323" s="26"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="11"/>
-      <c r="B324" s="11"/>
-      <c r="C324" s="11"/>
+      <c r="A324" s="26"/>
+      <c r="B324" s="26"/>
+      <c r="C324" s="26"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="11"/>
-      <c r="B325" s="11"/>
-      <c r="C325" s="11"/>
+      <c r="A325" s="26"/>
+      <c r="B325" s="26"/>
+      <c r="C325" s="26"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="11"/>
-      <c r="B326" s="11"/>
-      <c r="C326" s="11"/>
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
+      <c r="C326" s="26"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="11"/>
-      <c r="B327" s="11"/>
-      <c r="C327" s="11"/>
+      <c r="A327" s="26"/>
+      <c r="B327" s="26"/>
+      <c r="C327" s="26"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="11"/>
-      <c r="B328" s="11"/>
-      <c r="C328" s="11"/>
+      <c r="A328" s="26"/>
+      <c r="B328" s="26"/>
+      <c r="C328" s="26"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="11"/>
-      <c r="B329" s="11"/>
-      <c r="C329" s="11"/>
+      <c r="A329" s="26"/>
+      <c r="B329" s="26"/>
+      <c r="C329" s="26"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="11"/>
-      <c r="B330" s="11"/>
-      <c r="C330" s="11"/>
+      <c r="A330" s="26"/>
+      <c r="B330" s="26"/>
+      <c r="C330" s="26"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="11"/>
-      <c r="B331" s="11"/>
-      <c r="C331" s="11"/>
+      <c r="A331" s="26"/>
+      <c r="B331" s="26"/>
+      <c r="C331" s="26"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="11"/>
-      <c r="B332" s="11"/>
-      <c r="C332" s="11"/>
+      <c r="A332" s="26"/>
+      <c r="B332" s="26"/>
+      <c r="C332" s="26"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="11"/>
-      <c r="B333" s="11"/>
-      <c r="C333" s="11"/>
+      <c r="A333" s="26"/>
+      <c r="B333" s="26"/>
+      <c r="C333" s="26"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="11"/>
-      <c r="B334" s="11"/>
-      <c r="C334" s="11"/>
+      <c r="A334" s="26"/>
+      <c r="B334" s="26"/>
+      <c r="C334" s="26"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="11"/>
-      <c r="B335" s="11"/>
-      <c r="C335" s="11"/>
+      <c r="A335" s="26"/>
+      <c r="B335" s="26"/>
+      <c r="C335" s="26"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="11"/>
-      <c r="B336" s="11"/>
-      <c r="C336" s="11"/>
+      <c r="A336" s="26"/>
+      <c r="B336" s="26"/>
+      <c r="C336" s="26"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="11"/>
-      <c r="B337" s="11"/>
-      <c r="C337" s="11"/>
+      <c r="A337" s="26"/>
+      <c r="B337" s="26"/>
+      <c r="C337" s="26"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="11"/>
-      <c r="B338" s="11"/>
-      <c r="C338" s="11"/>
+      <c r="A338" s="26"/>
+      <c r="B338" s="26"/>
+      <c r="C338" s="26"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="11"/>
-      <c r="B339" s="11"/>
-      <c r="C339" s="11"/>
+      <c r="A339" s="26"/>
+      <c r="B339" s="26"/>
+      <c r="C339" s="26"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="11"/>
-      <c r="B340" s="11"/>
-      <c r="C340" s="11"/>
+      <c r="A340" s="26"/>
+      <c r="B340" s="26"/>
+      <c r="C340" s="26"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="11"/>
-      <c r="B341" s="11"/>
-      <c r="C341" s="11"/>
+      <c r="A341" s="26"/>
+      <c r="B341" s="26"/>
+      <c r="C341" s="26"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="11"/>
-      <c r="B342" s="11"/>
-      <c r="C342" s="11"/>
+      <c r="A342" s="26"/>
+      <c r="B342" s="26"/>
+      <c r="C342" s="26"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="11"/>
-      <c r="B343" s="11"/>
-      <c r="C343" s="11"/>
+      <c r="A343" s="26"/>
+      <c r="B343" s="26"/>
+      <c r="C343" s="26"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="11"/>
-      <c r="B344" s="11"/>
-      <c r="C344" s="11"/>
+      <c r="A344" s="26"/>
+      <c r="B344" s="26"/>
+      <c r="C344" s="26"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="11"/>
-      <c r="B345" s="11"/>
-      <c r="C345" s="11"/>
+      <c r="A345" s="26"/>
+      <c r="B345" s="26"/>
+      <c r="C345" s="26"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="11"/>
-      <c r="B346" s="11"/>
-      <c r="C346" s="11"/>
+      <c r="A346" s="26"/>
+      <c r="B346" s="26"/>
+      <c r="C346" s="26"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="11"/>
-      <c r="B347" s="11"/>
-      <c r="C347" s="11"/>
+      <c r="A347" s="26"/>
+      <c r="B347" s="26"/>
+      <c r="C347" s="26"/>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="11"/>
-      <c r="B348" s="11"/>
-      <c r="C348" s="11"/>
+      <c r="A348" s="26"/>
+      <c r="B348" s="26"/>
+      <c r="C348" s="26"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="11"/>
-      <c r="B349" s="11"/>
-      <c r="C349" s="11"/>
+      <c r="A349" s="26"/>
+      <c r="B349" s="26"/>
+      <c r="C349" s="26"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="11"/>
-      <c r="B350" s="11"/>
-      <c r="C350" s="11"/>
+      <c r="A350" s="26"/>
+      <c r="B350" s="26"/>
+      <c r="C350" s="26"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="11"/>
-      <c r="B351" s="11"/>
-      <c r="C351" s="11"/>
+      <c r="A351" s="26"/>
+      <c r="B351" s="26"/>
+      <c r="C351" s="26"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="11"/>
-      <c r="B352" s="11"/>
-      <c r="C352" s="11"/>
+      <c r="A352" s="26"/>
+      <c r="B352" s="26"/>
+      <c r="C352" s="26"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="11"/>
-      <c r="B353" s="11"/>
-      <c r="C353" s="11"/>
+      <c r="A353" s="26"/>
+      <c r="B353" s="26"/>
+      <c r="C353" s="26"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="11"/>
-      <c r="B354" s="11"/>
-      <c r="C354" s="11"/>
+      <c r="A354" s="26"/>
+      <c r="B354" s="26"/>
+      <c r="C354" s="26"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="11"/>
-      <c r="B355" s="11"/>
-      <c r="C355" s="11"/>
+      <c r="A355" s="26"/>
+      <c r="B355" s="26"/>
+      <c r="C355" s="26"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="11"/>
-      <c r="B356" s="11"/>
-      <c r="C356" s="11"/>
+      <c r="A356" s="26"/>
+      <c r="B356" s="26"/>
+      <c r="C356" s="26"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="11"/>
-      <c r="B357" s="11"/>
-      <c r="C357" s="11"/>
+      <c r="A357" s="26"/>
+      <c r="B357" s="26"/>
+      <c r="C357" s="26"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="11"/>
-      <c r="B358" s="11"/>
-      <c r="C358" s="11"/>
+      <c r="A358" s="26"/>
+      <c r="B358" s="26"/>
+      <c r="C358" s="26"/>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="11"/>
-      <c r="B359" s="11"/>
-      <c r="C359" s="11"/>
+      <c r="A359" s="26"/>
+      <c r="B359" s="26"/>
+      <c r="C359" s="26"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="11"/>
-      <c r="B360" s="11"/>
-      <c r="C360" s="11"/>
+      <c r="A360" s="26"/>
+      <c r="B360" s="26"/>
+      <c r="C360" s="26"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="11"/>
-      <c r="B361" s="11"/>
-      <c r="C361" s="11"/>
+      <c r="A361" s="26"/>
+      <c r="B361" s="26"/>
+      <c r="C361" s="26"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="11"/>
-      <c r="B362" s="11"/>
-      <c r="C362" s="11"/>
+      <c r="A362" s="26"/>
+      <c r="B362" s="26"/>
+      <c r="C362" s="26"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="11"/>
-      <c r="B363" s="11"/>
-      <c r="C363" s="11"/>
+      <c r="A363" s="26"/>
+      <c r="B363" s="26"/>
+      <c r="C363" s="26"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="11"/>
-      <c r="B364" s="11"/>
-      <c r="C364" s="11"/>
+      <c r="A364" s="26"/>
+      <c r="B364" s="26"/>
+      <c r="C364" s="26"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="11"/>
-      <c r="B365" s="11"/>
-      <c r="C365" s="11"/>
+      <c r="A365" s="26"/>
+      <c r="B365" s="26"/>
+      <c r="C365" s="26"/>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="11"/>
-      <c r="B366" s="11"/>
-      <c r="C366" s="11"/>
+      <c r="A366" s="26"/>
+      <c r="B366" s="26"/>
+      <c r="C366" s="26"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="11"/>
-      <c r="B367" s="11"/>
-      <c r="C367" s="11"/>
+      <c r="A367" s="26"/>
+      <c r="B367" s="26"/>
+      <c r="C367" s="26"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="11"/>
-      <c r="B368" s="11"/>
-      <c r="C368" s="11"/>
+      <c r="A368" s="26"/>
+      <c r="B368" s="26"/>
+      <c r="C368" s="26"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="11"/>
-      <c r="B369" s="11"/>
-      <c r="C369" s="11"/>
+      <c r="A369" s="26"/>
+      <c r="B369" s="26"/>
+      <c r="C369" s="26"/>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="11"/>
-      <c r="B370" s="11"/>
-      <c r="C370" s="11"/>
+      <c r="A370" s="26"/>
+      <c r="B370" s="26"/>
+      <c r="C370" s="26"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="11"/>
-      <c r="B371" s="11"/>
-      <c r="C371" s="11"/>
+      <c r="A371" s="26"/>
+      <c r="B371" s="26"/>
+      <c r="C371" s="26"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="11"/>
-      <c r="B372" s="11"/>
-      <c r="C372" s="11"/>
+      <c r="A372" s="26"/>
+      <c r="B372" s="26"/>
+      <c r="C372" s="26"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="11"/>
-      <c r="B373" s="11"/>
-      <c r="C373" s="11"/>
+      <c r="A373" s="26"/>
+      <c r="B373" s="26"/>
+      <c r="C373" s="26"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="11"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="11"/>
+      <c r="A374" s="26"/>
+      <c r="B374" s="26"/>
+      <c r="C374" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="371">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A246:C246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C316"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="A350:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="A347:C347"/>
     <mergeCell ref="A372:C372"/>
     <mergeCell ref="A373:C373"/>
     <mergeCell ref="A374:C374"/>
@@ -3522,6 +3182,353 @@
     <mergeCell ref="A359:C359"/>
     <mergeCell ref="A348:C348"/>
     <mergeCell ref="A349:C349"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="A347:C347"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <conditionalFormatting sqref="D1 D3:D16 D20:D1048576">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">

--- a/Doc/stratégie de test toute les versions/StrategieTestV4.xlsx
+++ b/Doc/stratégie de test toute les versions/StrategieTestV4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban.GIORGIS\CLionProjects\BatailleNavalExa\Repository\Bataille_navale\Doc\stratégie de test toute les versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bataille navale\A rendre\stratégie de test toute les versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50DEB2C-3593-484D-9D1C-DA2888559BFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -119,16 +120,16 @@
     <t xml:space="preserve"> Affiche la grille après avoir presser sur jouer</t>
   </si>
   <si>
-    <t>redemande les coordonnée si il tire sur une case déjà choisie</t>
+    <t>redemande les coordonnée si il tire sur case déjà choisie</t>
   </si>
   <si>
-    <t>si il rentre une lettre pour une coordonnée lui dit que c'est faut</t>
+    <t>enrgistre les scores dans un fichier externe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G374"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K20" sqref="K19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +955,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>32</v>
       </c>

--- a/Doc/stratégie de test toute les versions/StrategieTestV4.xlsx
+++ b/Doc/stratégie de test toute les versions/StrategieTestV4.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bataille navale\A rendre\stratégie de test toute les versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PDF Navale\Doc\Stratégie de test toute les versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50DEB2C-3593-484D-9D1C-DA2888559BFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12462C3C-60A5-4916-B453-CCC05072D2A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$I$37</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -294,11 +297,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,14 +309,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,11 +330,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K20" sqref="K19:K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,11 +681,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
@@ -693,21 +696,21 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
@@ -715,11 +718,11 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -727,11 +730,11 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -763,21 +766,21 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
@@ -785,11 +788,11 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
@@ -797,11 +800,11 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
@@ -809,11 +812,11 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
@@ -821,11 +824,11 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
@@ -833,11 +836,11 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
@@ -848,11 +851,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
@@ -860,11 +863,11 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
@@ -872,11 +875,11 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="4" t="s">
         <v>4</v>
       </c>
@@ -884,11 +887,11 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -896,11 +899,11 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
@@ -908,11 +911,11 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="4" t="s">
         <v>4</v>
       </c>
@@ -920,11 +923,11 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
         <v>4</v>
       </c>
@@ -932,11 +935,11 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="4" t="s">
         <v>5</v>
       </c>
@@ -944,11 +947,11 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
@@ -956,11 +959,11 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="4" t="s">
         <v>5</v>
       </c>
@@ -968,45 +971,45 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
@@ -1014,11 +1017,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="4" t="s">
         <v>4</v>
       </c>
@@ -1026,37 +1029,37 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4" t="s">
         <v>4</v>
       </c>
@@ -1064,11 +1067,11 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="4" t="s">
         <v>4</v>
       </c>
@@ -1076,2089 +1079,2436 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="4"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="4"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="4"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="15"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="15"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="4"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="4"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="4"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="4"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="4"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="4"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="4"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="4"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="4"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="4"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="4"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="4"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="4"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="4"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="4"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="15"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="4"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="4"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="4"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="4"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="4"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="4"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="4"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="4"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
       <c r="D71" s="4"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="4"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="15"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="4"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="15"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="4"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="15"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="4"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
       <c r="D76" s="4"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="4"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="4"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="4"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="4"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="4"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="4"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="4"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="4"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="4"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="4"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="4"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="4"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="4"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="4"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="4"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="4"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="4"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="4"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="4"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="4"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="4"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="4"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="4"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="4"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="25"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="4"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="4"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="4"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="4"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
       <c r="D105" s="4"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
       <c r="D106" s="4"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="4"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="4"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="4"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="C110" s="25"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="4"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="4"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="4"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="4"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="4"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="4"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="4"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
       <c r="D117" s="4"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="4"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
       <c r="D119" s="4"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="4"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="4"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
       <c r="D122" s="4"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
       <c r="D123" s="4"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
       <c r="D124" s="4"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
       <c r="D125" s="4"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
       <c r="D126" s="4"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
       <c r="D127" s="4"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
       <c r="D128" s="4"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
       <c r="D129" s="4"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
       <c r="D130" s="4"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
       <c r="D131" s="4"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
       <c r="D132" s="4"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="25"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
       <c r="D133" s="4"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
       <c r="D134" s="4"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="25"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
       <c r="D135" s="4"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="25"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
       <c r="D136" s="4"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="25"/>
-      <c r="B137" s="25"/>
-      <c r="C137" s="25"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
       <c r="D137" s="4"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="25"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
       <c r="D138" s="4"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="25"/>
-      <c r="B139" s="25"/>
-      <c r="C139" s="25"/>
+      <c r="A139" s="15"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
       <c r="D139" s="4"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
+      <c r="A140" s="15"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
       <c r="D140" s="4"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
       <c r="D141" s="4"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="25"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
       <c r="D142" s="4"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
       <c r="D143" s="4"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="25"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
       <c r="D144" s="4"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="25"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="25"/>
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
       <c r="D145" s="4"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="25"/>
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
       <c r="D146" s="4"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
       <c r="D147" s="4"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
       <c r="D148" s="4"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
+      <c r="A149" s="15"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
       <c r="D149" s="4"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="25"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="25"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
       <c r="D150" s="4"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="26"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
       <c r="D151" s="4"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
       <c r="D152" s="4"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="26"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
       <c r="D153" s="4"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="26"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
       <c r="D154" s="4"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="26"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
       <c r="D155" s="4"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="26"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
       <c r="D156" s="4"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="26"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
       <c r="D157" s="4"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="26"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="26"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="26"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="26"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="26"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="26"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="26"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="26"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="26"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="26"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="26"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="26"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="26"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="26"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="26"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="26"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="26"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="26"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="26"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="26"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="26"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="26"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="26"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="26"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="26"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="26"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="26"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="26"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="26"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="26"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="26"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="26"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="26"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="26"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="26"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="26"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="26"/>
-      <c r="B220" s="26"/>
-      <c r="C220" s="26"/>
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="26"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="26"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="26"/>
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="11"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="26"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="11"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="26"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="11"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="26"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="26"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="26"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
+      <c r="A229" s="11"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="11"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
+      <c r="A230" s="11"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="11"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
+      <c r="A231" s="11"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="26"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
+      <c r="A232" s="11"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="26"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="26"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="26"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="11"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="26"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="11"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="26"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="11"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="26"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
+      <c r="A241" s="11"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="26"/>
+      <c r="A242" s="11"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="26"/>
+      <c r="A243" s="11"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="26"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="26"/>
+      <c r="A244" s="11"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="26"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="26"/>
+      <c r="A245" s="11"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="11"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="26"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="26"/>
+      <c r="A246" s="11"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="11"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="26"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="26"/>
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="11"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="26"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="26"/>
+      <c r="A248" s="11"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="26"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="26"/>
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="26"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="26"/>
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="26"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="26"/>
+      <c r="A251" s="11"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="26"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="26"/>
+      <c r="A252" s="11"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="11"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
-      <c r="C253" s="26"/>
+      <c r="A253" s="11"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="11"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
-      <c r="C254" s="26"/>
+      <c r="A254" s="11"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="11"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="26"/>
+      <c r="A255" s="11"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="26"/>
+      <c r="A256" s="11"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="11"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="26"/>
-      <c r="B257" s="26"/>
-      <c r="C257" s="26"/>
+      <c r="A257" s="11"/>
+      <c r="B257" s="11"/>
+      <c r="C257" s="11"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="26"/>
-      <c r="B258" s="26"/>
-      <c r="C258" s="26"/>
+      <c r="A258" s="11"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="26"/>
-      <c r="B259" s="26"/>
-      <c r="C259" s="26"/>
+      <c r="A259" s="11"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="26"/>
-      <c r="B260" s="26"/>
-      <c r="C260" s="26"/>
+      <c r="A260" s="11"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="26"/>
-      <c r="B261" s="26"/>
-      <c r="C261" s="26"/>
+      <c r="A261" s="11"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="11"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="26"/>
-      <c r="B262" s="26"/>
-      <c r="C262" s="26"/>
+      <c r="A262" s="11"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="11"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="26"/>
-      <c r="B263" s="26"/>
-      <c r="C263" s="26"/>
+      <c r="A263" s="11"/>
+      <c r="B263" s="11"/>
+      <c r="C263" s="11"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="26"/>
+      <c r="A264" s="11"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="26"/>
-      <c r="B265" s="26"/>
-      <c r="C265" s="26"/>
+      <c r="A265" s="11"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="26"/>
-      <c r="B266" s="26"/>
-      <c r="C266" s="26"/>
+      <c r="A266" s="11"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="26"/>
-      <c r="B267" s="26"/>
-      <c r="C267" s="26"/>
+      <c r="A267" s="11"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="11"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="26"/>
-      <c r="B268" s="26"/>
-      <c r="C268" s="26"/>
+      <c r="A268" s="11"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="11"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="26"/>
-      <c r="B269" s="26"/>
-      <c r="C269" s="26"/>
+      <c r="A269" s="11"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="11"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="26"/>
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
+      <c r="A270" s="11"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="26"/>
-      <c r="B271" s="26"/>
-      <c r="C271" s="26"/>
+      <c r="A271" s="11"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="26"/>
-      <c r="B272" s="26"/>
-      <c r="C272" s="26"/>
+      <c r="A272" s="11"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="11"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="26"/>
-      <c r="B273" s="26"/>
-      <c r="C273" s="26"/>
+      <c r="A273" s="11"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="11"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="26"/>
-      <c r="B274" s="26"/>
-      <c r="C274" s="26"/>
+      <c r="A274" s="11"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="26"/>
-      <c r="B275" s="26"/>
-      <c r="C275" s="26"/>
+      <c r="A275" s="11"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="26"/>
-      <c r="B276" s="26"/>
-      <c r="C276" s="26"/>
+      <c r="A276" s="11"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="11"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="26"/>
-      <c r="B277" s="26"/>
-      <c r="C277" s="26"/>
+      <c r="A277" s="11"/>
+      <c r="B277" s="11"/>
+      <c r="C277" s="11"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="26"/>
-      <c r="B278" s="26"/>
-      <c r="C278" s="26"/>
+      <c r="A278" s="11"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="26"/>
-      <c r="B279" s="26"/>
-      <c r="C279" s="26"/>
+      <c r="A279" s="11"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="26"/>
-      <c r="B280" s="26"/>
-      <c r="C280" s="26"/>
+      <c r="A280" s="11"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="26"/>
-      <c r="B281" s="26"/>
-      <c r="C281" s="26"/>
+      <c r="A281" s="11"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="26"/>
-      <c r="B282" s="26"/>
-      <c r="C282" s="26"/>
+      <c r="A282" s="11"/>
+      <c r="B282" s="11"/>
+      <c r="C282" s="11"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="26"/>
-      <c r="B283" s="26"/>
-      <c r="C283" s="26"/>
+      <c r="A283" s="11"/>
+      <c r="B283" s="11"/>
+      <c r="C283" s="11"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="26"/>
-      <c r="B284" s="26"/>
-      <c r="C284" s="26"/>
+      <c r="A284" s="11"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="11"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="26"/>
-      <c r="B285" s="26"/>
-      <c r="C285" s="26"/>
+      <c r="A285" s="11"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="26"/>
-      <c r="B286" s="26"/>
-      <c r="C286" s="26"/>
+      <c r="A286" s="11"/>
+      <c r="B286" s="11"/>
+      <c r="C286" s="11"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="26"/>
-      <c r="B287" s="26"/>
-      <c r="C287" s="26"/>
+      <c r="A287" s="11"/>
+      <c r="B287" s="11"/>
+      <c r="C287" s="11"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="26"/>
-      <c r="B288" s="26"/>
-      <c r="C288" s="26"/>
+      <c r="A288" s="11"/>
+      <c r="B288" s="11"/>
+      <c r="C288" s="11"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="26"/>
-      <c r="B289" s="26"/>
-      <c r="C289" s="26"/>
+      <c r="A289" s="11"/>
+      <c r="B289" s="11"/>
+      <c r="C289" s="11"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="26"/>
-      <c r="B290" s="26"/>
-      <c r="C290" s="26"/>
+      <c r="A290" s="11"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="11"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="26"/>
-      <c r="B291" s="26"/>
-      <c r="C291" s="26"/>
+      <c r="A291" s="11"/>
+      <c r="B291" s="11"/>
+      <c r="C291" s="11"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="26"/>
-      <c r="B292" s="26"/>
-      <c r="C292" s="26"/>
+      <c r="A292" s="11"/>
+      <c r="B292" s="11"/>
+      <c r="C292" s="11"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="26"/>
-      <c r="B293" s="26"/>
-      <c r="C293" s="26"/>
+      <c r="A293" s="11"/>
+      <c r="B293" s="11"/>
+      <c r="C293" s="11"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="26"/>
-      <c r="B294" s="26"/>
-      <c r="C294" s="26"/>
+      <c r="A294" s="11"/>
+      <c r="B294" s="11"/>
+      <c r="C294" s="11"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="26"/>
-      <c r="B295" s="26"/>
-      <c r="C295" s="26"/>
+      <c r="A295" s="11"/>
+      <c r="B295" s="11"/>
+      <c r="C295" s="11"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="26"/>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
+      <c r="A296" s="11"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="11"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="26"/>
-      <c r="B297" s="26"/>
-      <c r="C297" s="26"/>
+      <c r="A297" s="11"/>
+      <c r="B297" s="11"/>
+      <c r="C297" s="11"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="26"/>
-      <c r="B298" s="26"/>
-      <c r="C298" s="26"/>
+      <c r="A298" s="11"/>
+      <c r="B298" s="11"/>
+      <c r="C298" s="11"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="26"/>
-      <c r="B299" s="26"/>
-      <c r="C299" s="26"/>
+      <c r="A299" s="11"/>
+      <c r="B299" s="11"/>
+      <c r="C299" s="11"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="26"/>
-      <c r="B300" s="26"/>
-      <c r="C300" s="26"/>
+      <c r="A300" s="11"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="26"/>
-      <c r="B301" s="26"/>
-      <c r="C301" s="26"/>
+      <c r="A301" s="11"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="26"/>
-      <c r="B302" s="26"/>
-      <c r="C302" s="26"/>
+      <c r="A302" s="11"/>
+      <c r="B302" s="11"/>
+      <c r="C302" s="11"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="26"/>
-      <c r="B303" s="26"/>
-      <c r="C303" s="26"/>
+      <c r="A303" s="11"/>
+      <c r="B303" s="11"/>
+      <c r="C303" s="11"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="26"/>
-      <c r="B304" s="26"/>
-      <c r="C304" s="26"/>
+      <c r="A304" s="11"/>
+      <c r="B304" s="11"/>
+      <c r="C304" s="11"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="26"/>
-      <c r="B305" s="26"/>
-      <c r="C305" s="26"/>
+      <c r="A305" s="11"/>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="26"/>
-      <c r="B306" s="26"/>
-      <c r="C306" s="26"/>
+      <c r="A306" s="11"/>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="26"/>
-      <c r="B307" s="26"/>
-      <c r="C307" s="26"/>
+      <c r="A307" s="11"/>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="26"/>
-      <c r="B308" s="26"/>
-      <c r="C308" s="26"/>
+      <c r="A308" s="11"/>
+      <c r="B308" s="11"/>
+      <c r="C308" s="11"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="26"/>
-      <c r="B309" s="26"/>
-      <c r="C309" s="26"/>
+      <c r="A309" s="11"/>
+      <c r="B309" s="11"/>
+      <c r="C309" s="11"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="26"/>
-      <c r="B310" s="26"/>
-      <c r="C310" s="26"/>
+      <c r="A310" s="11"/>
+      <c r="B310" s="11"/>
+      <c r="C310" s="11"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="26"/>
-      <c r="B311" s="26"/>
-      <c r="C311" s="26"/>
+      <c r="A311" s="11"/>
+      <c r="B311" s="11"/>
+      <c r="C311" s="11"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="26"/>
-      <c r="B312" s="26"/>
-      <c r="C312" s="26"/>
+      <c r="A312" s="11"/>
+      <c r="B312" s="11"/>
+      <c r="C312" s="11"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="26"/>
-      <c r="B313" s="26"/>
-      <c r="C313" s="26"/>
+      <c r="A313" s="11"/>
+      <c r="B313" s="11"/>
+      <c r="C313" s="11"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="26"/>
-      <c r="B314" s="26"/>
-      <c r="C314" s="26"/>
+      <c r="A314" s="11"/>
+      <c r="B314" s="11"/>
+      <c r="C314" s="11"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="26"/>
-      <c r="B315" s="26"/>
-      <c r="C315" s="26"/>
+      <c r="A315" s="11"/>
+      <c r="B315" s="11"/>
+      <c r="C315" s="11"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="26"/>
-      <c r="B316" s="26"/>
-      <c r="C316" s="26"/>
+      <c r="A316" s="11"/>
+      <c r="B316" s="11"/>
+      <c r="C316" s="11"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="26"/>
-      <c r="B317" s="26"/>
-      <c r="C317" s="26"/>
+      <c r="A317" s="11"/>
+      <c r="B317" s="11"/>
+      <c r="C317" s="11"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="26"/>
-      <c r="B318" s="26"/>
-      <c r="C318" s="26"/>
+      <c r="A318" s="11"/>
+      <c r="B318" s="11"/>
+      <c r="C318" s="11"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="26"/>
-      <c r="B319" s="26"/>
-      <c r="C319" s="26"/>
+      <c r="A319" s="11"/>
+      <c r="B319" s="11"/>
+      <c r="C319" s="11"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="26"/>
-      <c r="B320" s="26"/>
-      <c r="C320" s="26"/>
+      <c r="A320" s="11"/>
+      <c r="B320" s="11"/>
+      <c r="C320" s="11"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="26"/>
-      <c r="B321" s="26"/>
-      <c r="C321" s="26"/>
+      <c r="A321" s="11"/>
+      <c r="B321" s="11"/>
+      <c r="C321" s="11"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="26"/>
-      <c r="B322" s="26"/>
-      <c r="C322" s="26"/>
+      <c r="A322" s="11"/>
+      <c r="B322" s="11"/>
+      <c r="C322" s="11"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="26"/>
-      <c r="B323" s="26"/>
-      <c r="C323" s="26"/>
+      <c r="A323" s="11"/>
+      <c r="B323" s="11"/>
+      <c r="C323" s="11"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="26"/>
-      <c r="B324" s="26"/>
-      <c r="C324" s="26"/>
+      <c r="A324" s="11"/>
+      <c r="B324" s="11"/>
+      <c r="C324" s="11"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="26"/>
-      <c r="B325" s="26"/>
-      <c r="C325" s="26"/>
+      <c r="A325" s="11"/>
+      <c r="B325" s="11"/>
+      <c r="C325" s="11"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="26"/>
-      <c r="B326" s="26"/>
-      <c r="C326" s="26"/>
+      <c r="A326" s="11"/>
+      <c r="B326" s="11"/>
+      <c r="C326" s="11"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="26"/>
-      <c r="B327" s="26"/>
-      <c r="C327" s="26"/>
+      <c r="A327" s="11"/>
+      <c r="B327" s="11"/>
+      <c r="C327" s="11"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="26"/>
-      <c r="B328" s="26"/>
-      <c r="C328" s="26"/>
+      <c r="A328" s="11"/>
+      <c r="B328" s="11"/>
+      <c r="C328" s="11"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="26"/>
-      <c r="B329" s="26"/>
-      <c r="C329" s="26"/>
+      <c r="A329" s="11"/>
+      <c r="B329" s="11"/>
+      <c r="C329" s="11"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="26"/>
-      <c r="B330" s="26"/>
-      <c r="C330" s="26"/>
+      <c r="A330" s="11"/>
+      <c r="B330" s="11"/>
+      <c r="C330" s="11"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="26"/>
-      <c r="B331" s="26"/>
-      <c r="C331" s="26"/>
+      <c r="A331" s="11"/>
+      <c r="B331" s="11"/>
+      <c r="C331" s="11"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="26"/>
-      <c r="B332" s="26"/>
-      <c r="C332" s="26"/>
+      <c r="A332" s="11"/>
+      <c r="B332" s="11"/>
+      <c r="C332" s="11"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="26"/>
-      <c r="B333" s="26"/>
-      <c r="C333" s="26"/>
+      <c r="A333" s="11"/>
+      <c r="B333" s="11"/>
+      <c r="C333" s="11"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="26"/>
-      <c r="B334" s="26"/>
-      <c r="C334" s="26"/>
+      <c r="A334" s="11"/>
+      <c r="B334" s="11"/>
+      <c r="C334" s="11"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="26"/>
-      <c r="B335" s="26"/>
-      <c r="C335" s="26"/>
+      <c r="A335" s="11"/>
+      <c r="B335" s="11"/>
+      <c r="C335" s="11"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="26"/>
-      <c r="B336" s="26"/>
-      <c r="C336" s="26"/>
+      <c r="A336" s="11"/>
+      <c r="B336" s="11"/>
+      <c r="C336" s="11"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="26"/>
-      <c r="B337" s="26"/>
-      <c r="C337" s="26"/>
+      <c r="A337" s="11"/>
+      <c r="B337" s="11"/>
+      <c r="C337" s="11"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="26"/>
-      <c r="B338" s="26"/>
-      <c r="C338" s="26"/>
+      <c r="A338" s="11"/>
+      <c r="B338" s="11"/>
+      <c r="C338" s="11"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="26"/>
-      <c r="B339" s="26"/>
-      <c r="C339" s="26"/>
+      <c r="A339" s="11"/>
+      <c r="B339" s="11"/>
+      <c r="C339" s="11"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="26"/>
-      <c r="B340" s="26"/>
-      <c r="C340" s="26"/>
+      <c r="A340" s="11"/>
+      <c r="B340" s="11"/>
+      <c r="C340" s="11"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="26"/>
-      <c r="B341" s="26"/>
-      <c r="C341" s="26"/>
+      <c r="A341" s="11"/>
+      <c r="B341" s="11"/>
+      <c r="C341" s="11"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="26"/>
-      <c r="B342" s="26"/>
-      <c r="C342" s="26"/>
+      <c r="A342" s="11"/>
+      <c r="B342" s="11"/>
+      <c r="C342" s="11"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="26"/>
-      <c r="B343" s="26"/>
-      <c r="C343" s="26"/>
+      <c r="A343" s="11"/>
+      <c r="B343" s="11"/>
+      <c r="C343" s="11"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="26"/>
-      <c r="B344" s="26"/>
-      <c r="C344" s="26"/>
+      <c r="A344" s="11"/>
+      <c r="B344" s="11"/>
+      <c r="C344" s="11"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="26"/>
-      <c r="B345" s="26"/>
-      <c r="C345" s="26"/>
+      <c r="A345" s="11"/>
+      <c r="B345" s="11"/>
+      <c r="C345" s="11"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="26"/>
-      <c r="B346" s="26"/>
-      <c r="C346" s="26"/>
+      <c r="A346" s="11"/>
+      <c r="B346" s="11"/>
+      <c r="C346" s="11"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="26"/>
-      <c r="B347" s="26"/>
-      <c r="C347" s="26"/>
+      <c r="A347" s="11"/>
+      <c r="B347" s="11"/>
+      <c r="C347" s="11"/>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="26"/>
-      <c r="B348" s="26"/>
-      <c r="C348" s="26"/>
+      <c r="A348" s="11"/>
+      <c r="B348" s="11"/>
+      <c r="C348" s="11"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="26"/>
-      <c r="B349" s="26"/>
-      <c r="C349" s="26"/>
+      <c r="A349" s="11"/>
+      <c r="B349" s="11"/>
+      <c r="C349" s="11"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="26"/>
-      <c r="B350" s="26"/>
-      <c r="C350" s="26"/>
+      <c r="A350" s="11"/>
+      <c r="B350" s="11"/>
+      <c r="C350" s="11"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="26"/>
-      <c r="B351" s="26"/>
-      <c r="C351" s="26"/>
+      <c r="A351" s="11"/>
+      <c r="B351" s="11"/>
+      <c r="C351" s="11"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="26"/>
-      <c r="B352" s="26"/>
-      <c r="C352" s="26"/>
+      <c r="A352" s="11"/>
+      <c r="B352" s="11"/>
+      <c r="C352" s="11"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="26"/>
-      <c r="B353" s="26"/>
-      <c r="C353" s="26"/>
+      <c r="A353" s="11"/>
+      <c r="B353" s="11"/>
+      <c r="C353" s="11"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="26"/>
-      <c r="B354" s="26"/>
-      <c r="C354" s="26"/>
+      <c r="A354" s="11"/>
+      <c r="B354" s="11"/>
+      <c r="C354" s="11"/>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="26"/>
-      <c r="B355" s="26"/>
-      <c r="C355" s="26"/>
+      <c r="A355" s="11"/>
+      <c r="B355" s="11"/>
+      <c r="C355" s="11"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="26"/>
-      <c r="B356" s="26"/>
-      <c r="C356" s="26"/>
+      <c r="A356" s="11"/>
+      <c r="B356" s="11"/>
+      <c r="C356" s="11"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="26"/>
-      <c r="B357" s="26"/>
-      <c r="C357" s="26"/>
+      <c r="A357" s="11"/>
+      <c r="B357" s="11"/>
+      <c r="C357" s="11"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="26"/>
-      <c r="B358" s="26"/>
-      <c r="C358" s="26"/>
+      <c r="A358" s="11"/>
+      <c r="B358" s="11"/>
+      <c r="C358" s="11"/>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="26"/>
-      <c r="B359" s="26"/>
-      <c r="C359" s="26"/>
+      <c r="A359" s="11"/>
+      <c r="B359" s="11"/>
+      <c r="C359" s="11"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="26"/>
-      <c r="B360" s="26"/>
-      <c r="C360" s="26"/>
+      <c r="A360" s="11"/>
+      <c r="B360" s="11"/>
+      <c r="C360" s="11"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="26"/>
-      <c r="B361" s="26"/>
-      <c r="C361" s="26"/>
+      <c r="A361" s="11"/>
+      <c r="B361" s="11"/>
+      <c r="C361" s="11"/>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="26"/>
-      <c r="B362" s="26"/>
-      <c r="C362" s="26"/>
+      <c r="A362" s="11"/>
+      <c r="B362" s="11"/>
+      <c r="C362" s="11"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="26"/>
-      <c r="B363" s="26"/>
-      <c r="C363" s="26"/>
+      <c r="A363" s="11"/>
+      <c r="B363" s="11"/>
+      <c r="C363" s="11"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="26"/>
-      <c r="B364" s="26"/>
-      <c r="C364" s="26"/>
+      <c r="A364" s="11"/>
+      <c r="B364" s="11"/>
+      <c r="C364" s="11"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="26"/>
-      <c r="B365" s="26"/>
-      <c r="C365" s="26"/>
+      <c r="A365" s="11"/>
+      <c r="B365" s="11"/>
+      <c r="C365" s="11"/>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="26"/>
-      <c r="B366" s="26"/>
-      <c r="C366" s="26"/>
+      <c r="A366" s="11"/>
+      <c r="B366" s="11"/>
+      <c r="C366" s="11"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="26"/>
-      <c r="B367" s="26"/>
-      <c r="C367" s="26"/>
+      <c r="A367" s="11"/>
+      <c r="B367" s="11"/>
+      <c r="C367" s="11"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="26"/>
-      <c r="B368" s="26"/>
-      <c r="C368" s="26"/>
+      <c r="A368" s="11"/>
+      <c r="B368" s="11"/>
+      <c r="C368" s="11"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="26"/>
-      <c r="B369" s="26"/>
-      <c r="C369" s="26"/>
+      <c r="A369" s="11"/>
+      <c r="B369" s="11"/>
+      <c r="C369" s="11"/>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="26"/>
-      <c r="B370" s="26"/>
-      <c r="C370" s="26"/>
+      <c r="A370" s="11"/>
+      <c r="B370" s="11"/>
+      <c r="C370" s="11"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="26"/>
-      <c r="B371" s="26"/>
-      <c r="C371" s="26"/>
+      <c r="A371" s="11"/>
+      <c r="B371" s="11"/>
+      <c r="C371" s="11"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="26"/>
-      <c r="B372" s="26"/>
-      <c r="C372" s="26"/>
+      <c r="A372" s="11"/>
+      <c r="B372" s="11"/>
+      <c r="C372" s="11"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="26"/>
-      <c r="B373" s="26"/>
-      <c r="C373" s="26"/>
+      <c r="A373" s="11"/>
+      <c r="B373" s="11"/>
+      <c r="C373" s="11"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="26"/>
-      <c r="B374" s="26"/>
-      <c r="C374" s="26"/>
+      <c r="A374" s="11"/>
+      <c r="B374" s="11"/>
+      <c r="C374" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="371">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A156:C156"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A160:C160"/>
+    <mergeCell ref="A161:C161"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A168:C168"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A172:C172"/>
+    <mergeCell ref="A173:C173"/>
+    <mergeCell ref="A162:C162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A164:C164"/>
+    <mergeCell ref="A165:C165"/>
+    <mergeCell ref="A166:C166"/>
+    <mergeCell ref="A167:C167"/>
+    <mergeCell ref="A180:C180"/>
+    <mergeCell ref="A181:C181"/>
+    <mergeCell ref="A182:C182"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A174:C174"/>
+    <mergeCell ref="A175:C175"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="A178:C178"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="A194:C194"/>
+    <mergeCell ref="A195:C195"/>
+    <mergeCell ref="A196:C196"/>
+    <mergeCell ref="A197:C197"/>
+    <mergeCell ref="A186:C186"/>
+    <mergeCell ref="A187:C187"/>
+    <mergeCell ref="A188:C188"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="A190:C190"/>
+    <mergeCell ref="A191:C191"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="A205:C205"/>
+    <mergeCell ref="A206:C206"/>
+    <mergeCell ref="A207:C207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="A209:C209"/>
+    <mergeCell ref="A198:C198"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A200:C200"/>
+    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A202:C202"/>
+    <mergeCell ref="A203:C203"/>
+    <mergeCell ref="A216:C216"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A218:C218"/>
+    <mergeCell ref="A219:C219"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A210:C210"/>
+    <mergeCell ref="A211:C211"/>
+    <mergeCell ref="A212:C212"/>
+    <mergeCell ref="A213:C213"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="A215:C215"/>
+    <mergeCell ref="A228:C228"/>
+    <mergeCell ref="A229:C229"/>
+    <mergeCell ref="A230:C230"/>
+    <mergeCell ref="A231:C231"/>
+    <mergeCell ref="A232:C232"/>
+    <mergeCell ref="A233:C233"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A223:C223"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="A225:C225"/>
+    <mergeCell ref="A226:C226"/>
+    <mergeCell ref="A227:C227"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A270:C270"/>
+    <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A272:C272"/>
+    <mergeCell ref="A273:C273"/>
+    <mergeCell ref="A274:C274"/>
+    <mergeCell ref="A275:C275"/>
+    <mergeCell ref="A288:C288"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="A291:C291"/>
+    <mergeCell ref="A292:C292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A286:C286"/>
+    <mergeCell ref="A287:C287"/>
+    <mergeCell ref="A300:C300"/>
+    <mergeCell ref="A301:C301"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A303:C303"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="A312:C312"/>
+    <mergeCell ref="A313:C313"/>
+    <mergeCell ref="A314:C314"/>
+    <mergeCell ref="A315:C315"/>
+    <mergeCell ref="A316:C316"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A310:C310"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A326:C326"/>
+    <mergeCell ref="A327:C327"/>
+    <mergeCell ref="A328:C328"/>
+    <mergeCell ref="A329:C329"/>
+    <mergeCell ref="A318:C318"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="A320:C320"/>
+    <mergeCell ref="A321:C321"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="A323:C323"/>
+    <mergeCell ref="A336:C336"/>
+    <mergeCell ref="A337:C337"/>
+    <mergeCell ref="A338:C338"/>
+    <mergeCell ref="A339:C339"/>
+    <mergeCell ref="A340:C340"/>
+    <mergeCell ref="A341:C341"/>
+    <mergeCell ref="A330:C330"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A332:C332"/>
+    <mergeCell ref="A333:C333"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="A335:C335"/>
+    <mergeCell ref="A350:C350"/>
+    <mergeCell ref="A351:C351"/>
+    <mergeCell ref="A352:C352"/>
+    <mergeCell ref="A353:C353"/>
+    <mergeCell ref="A342:C342"/>
+    <mergeCell ref="A343:C343"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="A347:C347"/>
     <mergeCell ref="A372:C372"/>
     <mergeCell ref="A373:C373"/>
     <mergeCell ref="A374:C374"/>
@@ -3183,353 +3533,6 @@
     <mergeCell ref="A359:C359"/>
     <mergeCell ref="A348:C348"/>
     <mergeCell ref="A349:C349"/>
-    <mergeCell ref="A350:C350"/>
-    <mergeCell ref="A351:C351"/>
-    <mergeCell ref="A352:C352"/>
-    <mergeCell ref="A353:C353"/>
-    <mergeCell ref="A342:C342"/>
-    <mergeCell ref="A343:C343"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="A347:C347"/>
-    <mergeCell ref="A336:C336"/>
-    <mergeCell ref="A337:C337"/>
-    <mergeCell ref="A338:C338"/>
-    <mergeCell ref="A339:C339"/>
-    <mergeCell ref="A340:C340"/>
-    <mergeCell ref="A341:C341"/>
-    <mergeCell ref="A330:C330"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A332:C332"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="A335:C335"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="A325:C325"/>
-    <mergeCell ref="A326:C326"/>
-    <mergeCell ref="A327:C327"/>
-    <mergeCell ref="A328:C328"/>
-    <mergeCell ref="A329:C329"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="A320:C320"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="A323:C323"/>
-    <mergeCell ref="A312:C312"/>
-    <mergeCell ref="A313:C313"/>
-    <mergeCell ref="A314:C314"/>
-    <mergeCell ref="A315:C315"/>
-    <mergeCell ref="A316:C316"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A310:C310"/>
-    <mergeCell ref="A311:C311"/>
-    <mergeCell ref="A300:C300"/>
-    <mergeCell ref="A301:C301"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="A291:C291"/>
-    <mergeCell ref="A292:C292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:C286"/>
-    <mergeCell ref="A287:C287"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A270:C270"/>
-    <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A272:C272"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A274:C274"/>
-    <mergeCell ref="A275:C275"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A246:C246"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A240:C240"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="A242:C242"/>
-    <mergeCell ref="A243:C243"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="A245:C245"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="A237:C237"/>
-    <mergeCell ref="A238:C238"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A229:C229"/>
-    <mergeCell ref="A230:C230"/>
-    <mergeCell ref="A231:C231"/>
-    <mergeCell ref="A232:C232"/>
-    <mergeCell ref="A233:C233"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A223:C223"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="A225:C225"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="A227:C227"/>
-    <mergeCell ref="A216:C216"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A218:C218"/>
-    <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A210:C210"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="A212:C212"/>
-    <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="A215:C215"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="A205:C205"/>
-    <mergeCell ref="A206:C206"/>
-    <mergeCell ref="A207:C207"/>
-    <mergeCell ref="A208:C208"/>
-    <mergeCell ref="A209:C209"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A199:C199"/>
-    <mergeCell ref="A200:C200"/>
-    <mergeCell ref="A201:C201"/>
-    <mergeCell ref="A202:C202"/>
-    <mergeCell ref="A203:C203"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="A194:C194"/>
-    <mergeCell ref="A195:C195"/>
-    <mergeCell ref="A196:C196"/>
-    <mergeCell ref="A197:C197"/>
-    <mergeCell ref="A186:C186"/>
-    <mergeCell ref="A187:C187"/>
-    <mergeCell ref="A188:C188"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="A190:C190"/>
-    <mergeCell ref="A191:C191"/>
-    <mergeCell ref="A180:C180"/>
-    <mergeCell ref="A181:C181"/>
-    <mergeCell ref="A182:C182"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:C185"/>
-    <mergeCell ref="A174:C174"/>
-    <mergeCell ref="A175:C175"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="A178:C178"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="A171:C171"/>
-    <mergeCell ref="A172:C172"/>
-    <mergeCell ref="A173:C173"/>
-    <mergeCell ref="A162:C162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A164:C164"/>
-    <mergeCell ref="A165:C165"/>
-    <mergeCell ref="A166:C166"/>
-    <mergeCell ref="A167:C167"/>
-    <mergeCell ref="A156:C156"/>
-    <mergeCell ref="A157:C157"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A160:C160"/>
-    <mergeCell ref="A161:C161"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <conditionalFormatting sqref="D1 D3:D16 D20:D1048576">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
